--- a/data/ch05/사원별_월간_판매현황_two_sheets.xlsx
+++ b/data/ch05/사원별_월간_판매현황_two_sheets.xlsx
@@ -15,12 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>물리</t>
-  </si>
-  <si>
-    <t>화학</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>지사</t>
+  </si>
+  <si>
+    <t>고객 수</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,35 +408,48 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>95</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>92</v>
-      </c>
-      <c r="B3">
-        <v>93</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>98</v>
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>100</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -431,34 +459,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
